--- a/B1A1.xlsx
+++ b/B1A1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saint\Documents\Git\GitHub\DatSys\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Patient</t>
   </si>
@@ -106,9 +111,6 @@
   </si>
   <si>
     <t>DatumEnt.</t>
-  </si>
-  <si>
-    <t>A2)</t>
   </si>
 </sst>
 </file>
@@ -184,14 +186,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,9 +234,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,11 +632,6 @@
       </c>
       <c r="C18" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
